--- a/biology/Virologie/Iflavirus/Iflavirus.xlsx
+++ b/biology/Virologie/Iflavirus/Iflavirus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Iflavirus est un genre de virus, le seul de la famille des Iflaviridae, dans l’ordre des Picornavirales.
-Lors de la création du genre en 2002, sa position taxinomique était douteuse[2]. L'International Committee on Taxonomy of Viruses, considérait le genre Iflavirus comme seulement « proche des Picorna- et Dicistroviridae ». Certains considèrent plutôt que Iflavirus était l'unique genre d'une famille des Iflaviridae (ou Iflaviridés), de l'ordre des Picornavirales[3].
-En 2008, l’ICTV adopte la création de la famille des Iflaviridae[1], et y déplace le genre Iflavirus[2].
+Lors de la création du genre en 2002, sa position taxinomique était douteuse. L'International Committee on Taxonomy of Viruses, considérait le genre Iflavirus comme seulement « proche des Picorna- et Dicistroviridae ». Certains considèrent plutôt que Iflavirus était l'unique genre d'une famille des Iflaviridae (ou Iflaviridés), de l'ordre des Picornavirales.
+En 2008, l’ICTV adopte la création de la famille des Iflaviridae, et y déplace le genre Iflavirus.
 Le nom Iflavirus dérive de celui de l'espèce type du genre, à savoir Infectious flacherie virus, virus de la flacherie infectieuse.
 Les espèces du genre Iflavirus sont Deformed wing virus (virus des ailes déformées), Ectropis obliqua virus, Infectious flacherie virus (virus de la flacherie infectieuse), Perina nuda virus, Sacbrood virus (virus du couvain sacciforme) et Varroa destructor virus-1 (un virus transporté par l'acarien Varroa destructor).
 </t>
